--- a/TodoList.xlsx
+++ b/TodoList.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\Unity\VR-Journalism-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Development\Unity\VR-Journalism-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86554305-C781-4C5F-83ED-15FF850213E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79FCE3FC-70D7-49CA-B97D-1A30C684A59B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2532" yWindow="348" windowWidth="17280" windowHeight="8964" xr2:uid="{A0D18156-EC0B-421E-B77C-FCCB5F8E7D12}"/>
+    <workbookView xWindow="19200" yWindow="2235" windowWidth="19200" windowHeight="11385" xr2:uid="{A0D18156-EC0B-421E-B77C-FCCB5F8E7D12}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>VR Journalism Project</t>
   </si>
@@ -63,9 +63,6 @@
     <t>Subtitles</t>
   </si>
   <si>
-    <t>Volume Based Lights</t>
-  </si>
-  <si>
     <t>Requirements</t>
   </si>
   <si>
@@ -79,6 +76,21 @@
   </si>
   <si>
     <t>Narration</t>
+  </si>
+  <si>
+    <t>Volumetric Lights</t>
+  </si>
+  <si>
+    <t>Brandon</t>
+  </si>
+  <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>Merging</t>
+  </si>
+  <si>
+    <t>Done</t>
   </si>
 </sst>
 </file>
@@ -89,7 +101,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Century Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -97,7 +109,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="Century Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -107,19 +119,44 @@
       <name val="Roboto Light"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Century Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -158,37 +195,53 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="8">
+    <cellStyle name="Accent1" xfId="3" builtinId="29"/>
+    <cellStyle name="Accent2" xfId="4" builtinId="33"/>
+    <cellStyle name="Accent3" xfId="5" builtinId="37"/>
+    <cellStyle name="Accent4" xfId="6" builtinId="41"/>
+    <cellStyle name="Accent5" xfId="7" builtinId="45"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
@@ -207,9 +260,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Quotable">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Quotable">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -217,100 +270,48 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="212121"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="636363"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="00C6BB"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="6FEBA0"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="B6DF5E"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="EFB251"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="EF755F"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="ED515C"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="8F8F8F"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Quotable">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Century Gothic" panose="020B0502020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Arab" typeface="Tahoma"/>
+        <a:font script="Hebr" typeface="Gisha"/>
+        <a:font script="Thai" typeface="DilleniaUPC"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -331,29 +332,47 @@
         <a:font script="Laoo" typeface="DokChampa"/>
         <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Viet" typeface="Tahoma"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Century Gothic" panose="020B0502020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Tahoma"/>
+        <a:font script="Hebr" typeface="Gisha"/>
+        <a:font script="Thai" typeface="DilleniaUPC"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Verdana"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Quotable">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -362,76 +381,52 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
                 <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="90000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
+        <a:blipFill rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:duotone>
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
+                <a:tint val="98000"/>
                 <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
               </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="98000"/>
               </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
+            </a:duotone>
+          </a:blip>
+          <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
+        </a:blipFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="rnd" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="15875" cap="rnd" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="25400" cap="rnd" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
@@ -443,11 +438,11 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:innerShdw blurRad="63500" dist="25400" dir="13500000">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="75000"/>
               </a:srgbClr>
-            </a:outerShdw>
+            </a:innerShdw>
           </a:effectLst>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -455,35 +450,35 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
+                <a:tint val="84000"/>
+                <a:shade val="84000"/>
+                <a:lumMod val="90000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="84000"/>
+                <a:shade val="90000"/>
                 <a:satMod val="120000"/>
+                <a:lumMod val="90000"/>
               </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr"/>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
@@ -495,7 +490,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Quotable" id="{39EC5628-30ED-4578-ACD8-9820EDB8E15A}" vid="{6F3559E9-1A4C-49D8-94D4-F41003531C49}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -503,261 +498,274 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{261EE6D3-1E41-43EF-8299-B62A2DD2C0DD}">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.44140625" customWidth="1"/>
-    <col min="2" max="4" width="29.33203125" customWidth="1"/>
-    <col min="5" max="5" width="3" customWidth="1"/>
+    <col min="1" max="1" width="2.375" customWidth="1"/>
+    <col min="2" max="4" width="29.25" customWidth="1"/>
+    <col min="5" max="5" width="2.875" customWidth="1"/>
+    <col min="6" max="6" width="10.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="45.6" x14ac:dyDescent="0.8">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" ht="45.75" x14ac:dyDescent="0.65">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D3" s="1"/>
-      <c r="E3" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="7"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E4" s="10"/>
+      <c r="F4" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="7"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E5" s="10"/>
+      <c r="F5" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="7"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E6" s="10"/>
+    </row>
+    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="7"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E7" s="10"/>
+    </row>
+    <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="6" t="s">
-        <v>13</v>
+      <c r="B8" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="7"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E8" s="10"/>
+    </row>
+    <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
-      <c r="B9" s="6" t="s">
-        <v>15</v>
+      <c r="B9" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="7"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E9" s="10"/>
+    </row>
+    <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="7"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E10" s="10"/>
+    </row>
+    <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="7"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E11" s="10"/>
+    </row>
+    <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="7"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E12" s="10"/>
+    </row>
+    <row r="13" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="7"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E13" s="10"/>
+    </row>
+    <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="7"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E14" s="10"/>
+    </row>
+    <row r="15" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="7"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E15" s="10"/>
+    </row>
+    <row r="16" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="7"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E16" s="10"/>
+    </row>
+    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="7"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E17" s="10"/>
+    </row>
+    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="7"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E18" s="10"/>
+    </row>
+    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="7"/>
-    </row>
-    <row r="20" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="8"/>
-    </row>
-    <row r="21" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="E19" s="10"/>
+    </row>
+    <row r="20" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="11"/>
+    </row>
+    <row r="21" spans="1:5" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E22" s="10"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E23" s="10"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E24" s="10"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E25" s="10"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E26" s="10"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E27" s="10"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E28" s="10"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E29" s="10"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E30" s="10"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E31" s="10"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E32" s="10"/>
-    </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E33" s="10"/>
-    </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E34" s="10"/>
-    </row>
-    <row r="35" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E35" s="10"/>
-    </row>
-    <row r="36" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E36" s="10"/>
-    </row>
-    <row r="37" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E37" s="10"/>
-    </row>
-    <row r="38" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E38" s="10"/>
-    </row>
-    <row r="39" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E39" s="10"/>
-    </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E40" s="10"/>
-    </row>
-    <row r="41" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E41" s="10"/>
-    </row>
+        <v>13</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="E22" s="13"/>
+    </row>
+    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="E23" s="13"/>
+    </row>
+    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="E24" s="13"/>
+    </row>
+    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="E25" s="13"/>
+    </row>
+    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="E26" s="13"/>
+    </row>
+    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="E27" s="13"/>
+    </row>
+    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="E28" s="13"/>
+    </row>
+    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="E29" s="13"/>
+    </row>
+    <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="E30" s="13"/>
+    </row>
+    <row r="31" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="E31" s="13"/>
+    </row>
+    <row r="32" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="E32" s="13"/>
+    </row>
+    <row r="33" spans="5:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="E33" s="13"/>
+    </row>
+    <row r="34" spans="5:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="E34" s="13"/>
+    </row>
+    <row r="35" spans="5:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="E35" s="13"/>
+    </row>
+    <row r="36" spans="5:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="E36" s="14"/>
+    </row>
+    <row r="37" spans="5:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="E37" s="14"/>
+    </row>
+    <row r="38" spans="5:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="E38" s="14"/>
+    </row>
+    <row r="39" spans="5:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="E39" s="14"/>
+    </row>
+    <row r="40" spans="5:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="E40" s="14"/>
+    </row>
+    <row r="41" spans="5:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="E41" s="14"/>
+    </row>
+    <row r="42" spans="5:5" ht="16.5" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E3:E20"/>
-    <mergeCell ref="E21:E41"/>
+    <mergeCell ref="E21:E35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/TodoList.xlsx
+++ b/TodoList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Development\Unity\VR-Journalism-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79FCE3FC-70D7-49CA-B97D-1A30C684A59B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DA28FF2-D281-443D-A420-BC28D98C6B07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19200" yWindow="2235" windowWidth="19200" windowHeight="11385" xr2:uid="{A0D18156-EC0B-421E-B77C-FCCB5F8E7D12}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>VR Journalism Project</t>
   </si>
@@ -81,9 +81,6 @@
     <t>Volumetric Lights</t>
   </si>
   <si>
-    <t>Brandon</t>
-  </si>
-  <si>
     <t>In Progress</t>
   </si>
   <si>
@@ -91,6 +88,18 @@
   </si>
   <si>
     <t>Done</t>
+  </si>
+  <si>
+    <t>Brandon B</t>
+  </si>
+  <si>
+    <t>Tuesday 12</t>
+  </si>
+  <si>
+    <t>Juriel</t>
+  </si>
+  <si>
+    <t>Sunday 10</t>
   </si>
 </sst>
 </file>
@@ -205,7 +214,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -214,12 +223,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="5"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -232,9 +244,8 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="3" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Accent1" xfId="3" builtinId="29"/>
@@ -498,13 +509,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{261EE6D3-1E41-43EF-8299-B62A2DD2C0DD}">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.375" customWidth="1"/>
     <col min="2" max="4" width="29.25" customWidth="1"/>
@@ -513,12 +524,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="45.75" x14ac:dyDescent="0.65">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -537,230 +548,239 @@
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
+      <c r="A3" s="15"/>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="15"/>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="11"/>
+      <c r="F4" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="E5" s="11"/>
+      <c r="F5" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="10"/>
-    </row>
-    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="E6" s="11"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="10"/>
-    </row>
-    <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="E7" s="11"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="E8" s="11"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="10"/>
-    </row>
-    <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="E9" s="11"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="10"/>
-    </row>
-    <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="E10" s="11"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="10"/>
-    </row>
-    <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="E11" s="11"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="10"/>
-    </row>
-    <row r="13" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="E12" s="11"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="10"/>
-    </row>
-    <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="E13" s="11"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="10"/>
-    </row>
-    <row r="15" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="E14" s="11"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="10"/>
-    </row>
-    <row r="16" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="E15" s="11"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="10"/>
-    </row>
-    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="E16" s="11"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="10"/>
-    </row>
-    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="E17" s="11"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="10"/>
-    </row>
-    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="E18" s="11"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="10"/>
+      <c r="E19" s="11"/>
     </row>
     <row r="20" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="11"/>
+      <c r="E20" s="12"/>
     </row>
     <row r="21" spans="1:5" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="6"/>
       <c r="B21" t="s">
         <v>15</v>
       </c>
       <c r="C21" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="D21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="E22" s="13"/>
-    </row>
-    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="E23" s="13"/>
-    </row>
-    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="E24" s="13"/>
-    </row>
-    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="E25" s="13"/>
-    </row>
-    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="E26" s="13"/>
-    </row>
-    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="E27" s="13"/>
-    </row>
-    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="E28" s="13"/>
-    </row>
-    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="E29" s="13"/>
-    </row>
-    <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="E30" s="13"/>
-    </row>
-    <row r="31" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="E31" s="13"/>
-    </row>
-    <row r="32" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="E32" s="13"/>
-    </row>
-    <row r="33" spans="5:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="E33" s="13"/>
-    </row>
-    <row r="34" spans="5:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="E34" s="13"/>
-    </row>
-    <row r="35" spans="5:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="E35" s="13"/>
-    </row>
-    <row r="36" spans="5:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="E36" s="14"/>
-    </row>
-    <row r="37" spans="5:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="E37" s="14"/>
-    </row>
-    <row r="38" spans="5:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="E38" s="14"/>
-    </row>
-    <row r="39" spans="5:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="E39" s="14"/>
-    </row>
-    <row r="40" spans="5:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="E40" s="14"/>
-    </row>
-    <row r="41" spans="5:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="E41" s="14"/>
-    </row>
-    <row r="42" spans="5:5" ht="16.5" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E22" s="14"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E23" s="14"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E24" s="14"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E25" s="14"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E26" s="14"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E27" s="14"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E28" s="14"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E29" s="14"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E30" s="14"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E31" s="14"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E32" s="14"/>
+    </row>
+    <row r="33" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E33" s="14"/>
+    </row>
+    <row r="34" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E34" s="14"/>
+    </row>
+    <row r="35" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E35" s="14"/>
+    </row>
+    <row r="36" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E36" s="9"/>
+    </row>
+    <row r="37" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E37" s="9"/>
+    </row>
+    <row r="38" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E38" s="9"/>
+    </row>
+    <row r="39" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E39" s="9"/>
+    </row>
+    <row r="40" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E40" s="9"/>
+    </row>
+    <row r="41" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E41" s="9"/>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:D1"/>

--- a/TodoList.xlsx
+++ b/TodoList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Development\Unity\VR-Journalism-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DA28FF2-D281-443D-A420-BC28D98C6B07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C7752A-9670-47CE-9583-CDA0CEEAEAB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="2235" windowWidth="19200" windowHeight="11385" xr2:uid="{A0D18156-EC0B-421E-B77C-FCCB5F8E7D12}"/>
+    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="15600" xr2:uid="{A0D18156-EC0B-421E-B77C-FCCB5F8E7D12}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t>VR Journalism Project</t>
   </si>
@@ -75,9 +75,6 @@
     <t>Ryan</t>
   </si>
   <si>
-    <t>Narration</t>
-  </si>
-  <si>
     <t>Volumetric Lights</t>
   </si>
   <si>
@@ -96,10 +93,64 @@
     <t>Tuesday 12</t>
   </si>
   <si>
-    <t>Juriel</t>
-  </si>
-  <si>
-    <t>Sunday 10</t>
+    <t>Brandon R</t>
+  </si>
+  <si>
+    <t>Juriel G</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Images</t>
+  </si>
+  <si>
+    <t>Rendering Images to a Quad, and allowing the user to manipulate it.</t>
+  </si>
+  <si>
+    <t>Allowing Videos to be switch using the a list of videos and switching one by one when they are done. However it must loop back when at the last video.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find and play some scenic Audio Clips clips that aide in telling a story. Audioclips must be Creative Commons 0 (Public Domain), or Attribution (Name of sound and author recorded) and play audio clips randomly.  </t>
+  </si>
+  <si>
+    <t>We need some subtitles and a way to deliver the message to the screen. When the video/audio has triggered. And must fade away.</t>
+  </si>
+  <si>
+    <t>Must make/find models that must be Creative Commons 0 (Public Domain), or Attribution (Name of sound and author recorded).</t>
+  </si>
+  <si>
+    <t>A UI Manager, which is a singleton mediator that has delegation that other classes can bind/subscribe to. Additionally, to design it.</t>
+  </si>
+  <si>
+    <t>Timeline</t>
+  </si>
+  <si>
+    <t>Just getting a video up and running. making sure the video is displayed right.</t>
+  </si>
+  <si>
+    <t>Post Processing</t>
+  </si>
+  <si>
+    <t>VFX Graph</t>
+  </si>
+  <si>
+    <t>Shaders</t>
+  </si>
+  <si>
+    <t>Volumetric Lighting to set the tone of the story/video.</t>
+  </si>
+  <si>
+    <t>The timeline is responsible for triggering subtitles, sounds, images, videos, and can communicate with the UI controllers.</t>
+  </si>
+  <si>
+    <t>Water, Plants, Fire, Pollution. Using Models, images to make effects.</t>
+  </si>
+  <si>
+    <t>Edit the post processing.</t>
+  </si>
+  <si>
+    <t>Make Some Cool Shaders. Raymarching, Water Shaders, etc.</t>
   </si>
 </sst>
 </file>
@@ -168,7 +219,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -189,18 +240,9 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thick">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -214,14 +256,9 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="4"/>
@@ -229,23 +266,34 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="3" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="3" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Accent1" xfId="3" builtinId="29"/>
@@ -509,283 +557,299 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{261EE6D3-1E41-43EF-8299-B62A2DD2C0DD}">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.375" customWidth="1"/>
-    <col min="2" max="4" width="29.25" customWidth="1"/>
-    <col min="5" max="5" width="2.875" customWidth="1"/>
-    <col min="6" max="6" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="3" max="3" width="52" customWidth="1"/>
+    <col min="4" max="4" width="12.375" customWidth="1"/>
+    <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.875" customWidth="1"/>
+    <col min="7" max="9" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="45.75" x14ac:dyDescent="0.65">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:9" ht="45.75" x14ac:dyDescent="0.65">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="15"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" ht="33.75" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7"/>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="11" t="s">
+      <c r="F3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="G3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="15"/>
+      <c r="I3" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="7"/>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="10"/>
+    </row>
+    <row r="5" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="12" t="s">
+        <v>25</v>
+      </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E5" s="1"/>
+      <c r="F5" s="10"/>
+    </row>
+    <row r="6" spans="1:9" ht="66" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="C6" s="13" t="s">
+        <v>26</v>
+      </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="11"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E6" s="1"/>
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="1"/>
+      <c r="C7" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="11"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="5" t="s">
+      <c r="E7" s="1"/>
+      <c r="F7" s="10"/>
+    </row>
+    <row r="8" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="7"/>
+      <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="11"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C8" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="10"/>
+    </row>
+    <row r="9" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
-      <c r="B9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="1"/>
+      <c r="B9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>24</v>
+      </c>
       <c r="D9" s="1"/>
-      <c r="E9" s="11"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E9" s="1"/>
+      <c r="F9" s="10"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="11"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E10" s="1"/>
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="11"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="11"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="11"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="11"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="11"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="11"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="11"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="11"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="11"/>
-    </row>
-    <row r="20" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="12"/>
-    </row>
-    <row r="21" spans="1:5" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="6"/>
-      <c r="B21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="E11" s="1"/>
+      <c r="F11" s="10"/>
+    </row>
+    <row r="12" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="18"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" t="s">
         <v>13</v>
       </c>
-      <c r="D21" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21" s="13" t="s">
+      <c r="E13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E22" s="14"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E23" s="14"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E24" s="14"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E25" s="14"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E26" s="14"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E27" s="14"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E28" s="14"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E29" s="14"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E30" s="14"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E31" s="14"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E32" s="14"/>
-    </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E33" s="14"/>
-    </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E34" s="14"/>
-    </row>
-    <row r="35" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E35" s="14"/>
-    </row>
-    <row r="36" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E36" s="9"/>
-    </row>
-    <row r="37" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E37" s="9"/>
-    </row>
-    <row r="38" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E38" s="9"/>
-    </row>
-    <row r="39" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E39" s="9"/>
-    </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E40" s="9"/>
-    </row>
-    <row r="41" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E41" s="9"/>
+    <row r="14" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="11"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="11"/>
+    </row>
+    <row r="16" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="11"/>
+    </row>
+    <row r="17" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="11"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C18" s="14"/>
+      <c r="F18" s="11"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C19" s="14"/>
+      <c r="F19" s="11"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C20" s="14"/>
+      <c r="F20" s="11"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C21" s="14"/>
+      <c r="F21" s="11"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C22" s="14"/>
+      <c r="F22" s="11"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C23" s="14"/>
+      <c r="F23" s="11"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C24" s="14"/>
+      <c r="F24" s="11"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C25" s="14"/>
+      <c r="F25" s="11"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C26" s="14"/>
+      <c r="F26" s="11"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C27" s="14"/>
+      <c r="F27" s="11"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C28" s="14"/>
+      <c r="F28" s="6"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C29" s="14"/>
+      <c r="F29" s="6"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F30" s="6"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F31" s="6"/>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F32" s="6"/>
+    </row>
+    <row r="33" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F33" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E3:E20"/>
-    <mergeCell ref="E21:E35"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F13:F27"/>
+    <mergeCell ref="F3:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/TodoList.xlsx
+++ b/TodoList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Development\Unity\VR-Journalism-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C7752A-9670-47CE-9583-CDA0CEEAEAB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38AD28A7-3E88-4E5B-9B90-C5F4EC7AD2A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="15600" xr2:uid="{A0D18156-EC0B-421E-B77C-FCCB5F8E7D12}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
   <si>
     <t>VR Journalism Project</t>
   </si>
@@ -105,15 +105,9 @@
     <t>Images</t>
   </si>
   <si>
-    <t>Rendering Images to a Quad, and allowing the user to manipulate it.</t>
-  </si>
-  <si>
     <t>Allowing Videos to be switch using the a list of videos and switching one by one when they are done. However it must loop back when at the last video.</t>
   </si>
   <si>
-    <t xml:space="preserve">Find and play some scenic Audio Clips clips that aide in telling a story. Audioclips must be Creative Commons 0 (Public Domain), or Attribution (Name of sound and author recorded) and play audio clips randomly.  </t>
-  </si>
-  <si>
     <t>We need some subtitles and a way to deliver the message to the screen. When the video/audio has triggered. And must fade away.</t>
   </si>
   <si>
@@ -151,6 +145,21 @@
   </si>
   <si>
     <t>Make Some Cool Shaders. Raymarching, Water Shaders, etc.</t>
+  </si>
+  <si>
+    <t>Nicholas M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find and play some scenic Audio Clips that aide in telling a story. Audioclips must be Creative Commons 0 (Public Domain), or Attribution (Name of sound and author recorded) and play audio clips randomly.  </t>
+  </si>
+  <si>
+    <t>Rendering Images to a Quad, and allowing the user to manipulate it (move it around, translation and rotation).</t>
+  </si>
+  <si>
+    <t>Allowing the VR hardware to move the camera and controllers to interact with objects and UI.</t>
+  </si>
+  <si>
+    <t>VR Controls</t>
   </si>
 </sst>
 </file>
@@ -268,15 +277,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="3" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -291,6 +291,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -560,7 +569,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -575,29 +584,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="45.75" x14ac:dyDescent="0.65">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:9" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="13" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1"/>
@@ -607,8 +616,8 @@
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>31</v>
+      <c r="C3" s="9" t="s">
+        <v>29</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>18</v>
@@ -616,7 +625,7 @@
       <c r="E3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="17" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="3" t="s">
@@ -634,8 +643,8 @@
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>29</v>
+      <c r="C4" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>21</v>
@@ -643,77 +652,85 @@
       <c r="E4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="10"/>
+      <c r="F4" s="17"/>
     </row>
     <row r="5" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>25</v>
+      <c r="C5" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="10"/>
+      <c r="F5" s="17"/>
     </row>
     <row r="6" spans="1:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
+      <c r="A6" s="7"/>
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="10"/>
+      <c r="C6" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="17"/>
     </row>
     <row r="7" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="13" t="s">
-        <v>27</v>
+      <c r="C7" s="10" t="s">
+        <v>25</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="10"/>
+      <c r="F7" s="17"/>
     </row>
     <row r="8" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
       <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="13" t="s">
-        <v>28</v>
+      <c r="C8" s="10" t="s">
+        <v>26</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E8" s="1"/>
-      <c r="F8" s="10"/>
-    </row>
-    <row r="9" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="F8" s="17"/>
+    </row>
+    <row r="9" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>24</v>
+      <c r="C9" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="10"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F9" s="17"/>
+    </row>
+    <row r="10" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+      <c r="B10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>41</v>
+      </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="10"/>
+      <c r="F10" s="17"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
@@ -721,14 +738,14 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="10"/>
+      <c r="F11" s="17"/>
     </row>
     <row r="12" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="17"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
       <c r="F12" s="18"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -736,8 +753,8 @@
       <c r="B13" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="14" t="s">
-        <v>35</v>
+      <c r="C13" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="D13" t="s">
         <v>13</v>
@@ -745,92 +762,92 @@
       <c r="E13" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="16" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" s="11"/>
+        <v>31</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="16"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" s="11"/>
+        <v>30</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="16"/>
     </row>
     <row r="16" spans="1:9" ht="33" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="F16" s="11"/>
+        <v>32</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="16"/>
     </row>
     <row r="17" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="F17" s="11"/>
+        <v>28</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="16"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C18" s="14"/>
-      <c r="F18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="F18" s="16"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C19" s="14"/>
-      <c r="F19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="F19" s="16"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C20" s="14"/>
-      <c r="F20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="F20" s="16"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C21" s="14"/>
-      <c r="F21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="F21" s="16"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C22" s="14"/>
-      <c r="F22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="F22" s="16"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C23" s="14"/>
-      <c r="F23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="F23" s="16"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C24" s="14"/>
-      <c r="F24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="F24" s="16"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C25" s="14"/>
-      <c r="F25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="F25" s="16"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C26" s="14"/>
-      <c r="F26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="F26" s="16"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C27" s="14"/>
-      <c r="F27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="F27" s="16"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C28" s="14"/>
+      <c r="C28" s="11"/>
       <c r="F28" s="6"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C29" s="14"/>
+      <c r="C29" s="11"/>
       <c r="F29" s="6"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">

--- a/TodoList.xlsx
+++ b/TodoList.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Development\Unity\VR-Journalism-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\Unity\VR-Journalism-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38AD28A7-3E88-4E5B-9B90-C5F4EC7AD2A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37775332-39EB-4B86-8865-E7C6A4FD889D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="15600" xr2:uid="{A0D18156-EC0B-421E-B77C-FCCB5F8E7D12}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A0D18156-EC0B-421E-B77C-FCCB5F8E7D12}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
   <si>
     <t>VR Journalism Project</t>
   </si>
@@ -160,6 +160,15 @@
   </si>
   <si>
     <t>VR Controls</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Friday 15</t>
+  </si>
+  <si>
+    <t>Thursday 14</t>
   </si>
 </sst>
 </file>
@@ -195,7 +204,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -227,6 +236,11 @@
         <fgColor theme="8"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -255,7 +269,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -264,8 +278,9 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -297,19 +312,23 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="6" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="6" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="5" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="9">
     <cellStyle name="Accent1" xfId="3" builtinId="29"/>
     <cellStyle name="Accent2" xfId="4" builtinId="33"/>
     <cellStyle name="Accent3" xfId="5" builtinId="37"/>
     <cellStyle name="Accent4" xfId="6" builtinId="41"/>
     <cellStyle name="Accent5" xfId="7" builtinId="45"/>
+    <cellStyle name="Accent6" xfId="8" builtinId="49"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
@@ -566,24 +585,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{261EE6D3-1E41-43EF-8299-B62A2DD2C0DD}">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.375" customWidth="1"/>
-    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="1" max="1" width="2.3984375" customWidth="1"/>
+    <col min="2" max="2" width="17.3984375" customWidth="1"/>
     <col min="3" max="3" width="52" customWidth="1"/>
-    <col min="4" max="4" width="12.375" customWidth="1"/>
+    <col min="4" max="4" width="12.3984375" customWidth="1"/>
     <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.875" customWidth="1"/>
-    <col min="7" max="9" width="11" customWidth="1"/>
+    <col min="6" max="6" width="2.8984375" customWidth="1"/>
+    <col min="7" max="10" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="45.75" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:10" ht="45.6" x14ac:dyDescent="0.8">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -593,7 +612,7 @@
       <c r="E1" s="15"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:9" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="19.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>4</v>
       </c>
@@ -611,7 +630,7 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:9" ht="33.75" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="28.2" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="1" t="s">
         <v>5</v>
@@ -625,21 +644,24 @@
       <c r="E3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="16" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>15</v>
       </c>
       <c r="H3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="7"/>
+    <row r="4" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A4" s="20"/>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
@@ -652,22 +674,26 @@
       <c r="E4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="17"/>
-    </row>
-    <row r="5" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
+      <c r="F4" s="16"/>
+    </row>
+    <row r="5" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="17"/>
-    </row>
-    <row r="6" spans="1:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
+      <c r="D5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="16"/>
+    </row>
+    <row r="6" spans="1:10" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A6" s="20"/>
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
@@ -680,21 +706,25 @@
       <c r="E6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="17"/>
-    </row>
-    <row r="7" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
+      <c r="F6" s="16"/>
+    </row>
+    <row r="7" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="17"/>
-    </row>
-    <row r="8" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="D7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="16"/>
+    </row>
+    <row r="8" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="2" t="s">
         <v>12</v>
@@ -705,23 +735,29 @@
       <c r="D8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="17"/>
-    </row>
-    <row r="9" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
+      <c r="E8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="16"/>
+    </row>
+    <row r="9" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
       <c r="B9" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="17"/>
-    </row>
-    <row r="10" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
+      <c r="D9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="16"/>
+    </row>
+    <row r="10" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A10" s="21"/>
       <c r="B10" s="2" t="s">
         <v>42</v>
       </c>
@@ -730,17 +766,17 @@
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="17"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F10" s="16"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="17"/>
-    </row>
-    <row r="12" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F11" s="16"/>
+    </row>
+    <row r="12" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="14"/>
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
@@ -748,7 +784,7 @@
       <c r="E12" s="14"/>
       <c r="F12" s="18"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" t="s">
         <v>14</v>
@@ -762,104 +798,104 @@
       <c r="E13" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="19" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>31</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="16"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F14" s="19"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>30</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="16"/>
-    </row>
-    <row r="16" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="F15" s="19"/>
+    </row>
+    <row r="16" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>32</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="16"/>
-    </row>
-    <row r="17" spans="2:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="F16" s="19"/>
+    </row>
+    <row r="17" spans="2:6" ht="41.4" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>28</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="16"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F17" s="19"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C18" s="11"/>
-      <c r="F18" s="16"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F18" s="19"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C19" s="11"/>
-      <c r="F19" s="16"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F19" s="19"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C20" s="11"/>
-      <c r="F20" s="16"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F20" s="19"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C21" s="11"/>
-      <c r="F21" s="16"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F21" s="19"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C22" s="11"/>
-      <c r="F22" s="16"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F22" s="19"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C23" s="11"/>
-      <c r="F23" s="16"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F23" s="19"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C24" s="11"/>
-      <c r="F24" s="16"/>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F24" s="19"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C25" s="11"/>
-      <c r="F25" s="16"/>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F25" s="19"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C26" s="11"/>
-      <c r="F26" s="16"/>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F26" s="19"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C27" s="11"/>
-      <c r="F27" s="16"/>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F27" s="19"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C28" s="11"/>
       <c r="F28" s="6"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C29" s="11"/>
       <c r="F29" s="6"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F30" s="6"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F31" s="6"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F32" s="6"/>
     </row>
-    <row r="33" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F33" s="6"/>
     </row>
   </sheetData>
